--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1392508.231579599</v>
+        <v>-1394989.151405059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>3.565780149281668</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851353</v>
@@ -1382,13 +1382,13 @@
         <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
         <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579941</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104937</v>
+        <v>82.2676152010493</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717754</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>39.31433222099554</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>42.51447233175633</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>68.85017973406234</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271942</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271155</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292079</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1591,7 +1591,7 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649683</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>298.5797709745398</v>
+        <v>313.9609811780721</v>
       </c>
       <c r="D14" t="n">
         <v>327.7628950335564</v>
@@ -1619,13 +1619,13 @@
         <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717755</v>
@@ -1667,10 +1667,10 @@
         <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689271</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>91.87889242954056</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>32.61916310224884</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292086</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1828,10 +1828,10 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1847,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>129.9513311564895</v>
       </c>
       <c r="U17" t="n">
         <v>177.0998887531829</v>
@@ -1907,10 +1907,10 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y17" t="n">
-        <v>287.325624003474</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F19" t="n">
-        <v>133.9254590121758</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860171</v>
+        <v>133.2594259035657</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432825</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257228</v>
@@ -2084,16 +2084,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>243.5714575743098</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>97.90474570419597</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503345</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432828</v>
+        <v>77.43656365929192</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257228</v>
@@ -2296,7 +2296,7 @@
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>240.6420543130725</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
         <v>212.6277151308719</v>
@@ -2321,16 +2321,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149638</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477343</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816014</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245675</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2381,7 +2381,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727499</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503345</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3363911711818</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290877</v>
+        <v>93.35153789290874</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249329</v>
+        <v>74.72018981249326</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408501</v>
+        <v>72.53867944085007</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721218</v>
+        <v>71.52576481721215</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330916</v>
+        <v>92.13052505330913</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860171</v>
+        <v>70.85973170860169</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411904</v>
+        <v>84.85683139908298</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432828</v>
+        <v>15.03686946432825</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257228</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
         <v>230.0675382420299</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383223</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052277</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>90.95618068285836</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482621</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621575</v>
+        <v>89.27723295061017</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
         <v>154.452923095723</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.5216066929742</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>90.95618068285802</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>197.9921611783833</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>231.0452163728788</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.4390655945494</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>91.2755658774865</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,10 +4198,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1425.172135279931</v>
+        <v>1485.580684958771</v>
       </c>
       <c r="C11" t="n">
-        <v>1425.172135279931</v>
+        <v>1485.580684958771</v>
       </c>
       <c r="D11" t="n">
-        <v>1094.098503932904</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E11" t="n">
-        <v>735.5023185943837</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645</v>
+        <v>351.7084810644999</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299098</v>
+        <v>81.3169479329909</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810548</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939507</v>
@@ -5063,7 +5063,7 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
         <v>3242.507220395989</v>
@@ -5078,13 +5078,13 @@
         <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2493.800863801774</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2147.527172800418</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="Y11" t="n">
-        <v>1784.579908084329</v>
+        <v>1844.988457763169</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609364</v>
+        <v>418.3126375609377</v>
       </c>
       <c r="C13" t="n">
-        <v>276.5685218927532</v>
+        <v>375.3687261147193</v>
       </c>
       <c r="D13" t="n">
-        <v>276.5685218927532</v>
+        <v>375.3687261147193</v>
       </c>
       <c r="E13" t="n">
-        <v>207.0228857977407</v>
+        <v>375.3687261147193</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0228857977407</v>
+        <v>255.6708458765327</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>255.6708458765327</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003743</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705059</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402573</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5215,19 +5215,19 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162337</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
         <v>1456.884554376953</v>
@@ -5236,13 +5236,13 @@
         <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535528</v>
+        <v>967.1670306535535</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152587</v>
+        <v>766.36954701526</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314524</v>
+        <v>572.7690351314536</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1726.767863537042</v>
+        <v>1844.988457763169</v>
       </c>
       <c r="C14" t="n">
-        <v>1425.172135279931</v>
+        <v>1527.856153542894</v>
       </c>
       <c r="D14" t="n">
-        <v>1094.098503932904</v>
+        <v>1196.782522195867</v>
       </c>
       <c r="E14" t="n">
-        <v>735.5023185943838</v>
+        <v>838.186336857347</v>
       </c>
       <c r="F14" t="n">
-        <v>351.7084810645</v>
+        <v>454.3924993274632</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299098</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,10 +5288,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U14" t="n">
-        <v>3099.267412142731</v>
+        <v>2837.383130573494</v>
       </c>
       <c r="V14" t="n">
-        <v>2795.396592058884</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W14" t="n">
-        <v>2795.396592058884</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2449.122901057528</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2086.17563634144</v>
+        <v>1844.988457763169</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>611.9131494447431</v>
+        <v>480.9510275436855</v>
       </c>
       <c r="C16" t="n">
-        <v>611.9131494447431</v>
+        <v>339.2069118755023</v>
       </c>
       <c r="D16" t="n">
-        <v>488.9885772921311</v>
+        <v>339.2069118755023</v>
       </c>
       <c r="E16" t="n">
-        <v>396.1816152420901</v>
+        <v>218.485885552833</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420901</v>
+        <v>218.485885552833</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765328</v>
+        <v>185.5372359546018</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003744</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705058</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.39213343079</v>
+        <v>1292.030523413538</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535527</v>
+        <v>1029.805420636302</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152591</v>
+        <v>829.0079369980078</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.3695470152591</v>
+        <v>635.4074251142015</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.173786276204</v>
+        <v>1518.976134084841</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.85296954359</v>
+        <v>1224.655317352226</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446361</v>
+        <v>941.0313189532728</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446361</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218339</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,16 +5525,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
@@ -5543,22 +5543,22 @@
         <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.692882478921</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417714</v>
+        <v>2979.804105960554</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>2723.38291882478</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2445.255963762463</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2146.43190570918</v>
       </c>
       <c r="Y17" t="n">
-        <v>1856.131926132529</v>
+        <v>1830.934273941166</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5592,10 +5592,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5604,40 +5604,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.151773123555</v>
+        <v>632.1517731235551</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034452</v>
+        <v>537.8572904034453</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989065</v>
+        <v>462.3823511989066</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243104</v>
+        <v>389.1109578243106</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978702</v>
+        <v>316.8627105341973</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>223.8015741167134</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604102</v>
+        <v>89.19609340604099</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218339</v>
@@ -5716,7 +5716,7 @@
         <v>885.3094166817308</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459977</v>
+        <v>739.1585377459978</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1817.728115595284</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1523.407298862669</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446363</v>
+        <v>966.2289711446364</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5783,19 +5783,19 @@
         <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417714</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.31084228194</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219623</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X20" t="n">
-        <v>2445.183887219623</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y20" t="n">
-        <v>2129.686255451608</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5850,7 +5850,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872281</v>
+        <v>569.121778987228</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671183</v>
+        <v>474.8272962671181</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625795</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879834</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978701</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604102</v>
+        <v>89.196093406041</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1849.07579691749</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952114</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
         <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356242</v>
+        <v>975.6272732356241</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454039</v>
+        <v>822.2794225454038</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096708</v>
+        <v>676.1285436096707</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349345</v>
+        <v>973.0946095349349</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953124</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059181</v>
       </c>
       <c r="H23" t="n">
         <v>73.37775482248237</v>
@@ -5987,28 +5987,28 @@
         <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018608</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>763.4819084917071</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1851.999402842084</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575119</v>
+        <v>2398.778219900866</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2901.750690780203</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811633</v>
+        <v>3296.525057137381</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3544.811418893063</v>
       </c>
       <c r="R23" t="n">
         <v>3668.887741124118</v>
@@ -6020,16 +6020,16 @@
         <v>3501.902725451029</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932662</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
         <v>3066.592761796889</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
         <v>2174.144116913275</v>
@@ -6066,25 +6066,25 @@
         <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243131</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.0173836061124</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277039</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775271</v>
+        <v>639.0174115138541</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574173</v>
+        <v>544.7229287937442</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>469.2479895892056</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782825</v>
+        <v>395.9765962146096</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>323.7283489244963</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>230.6672125070123</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634</v>
+        <v>159.0917259326672</v>
       </c>
       <c r="I25" t="n">
         <v>73.37775482248237</v>
@@ -6190,7 +6190,7 @@
         <v>892.1750550720297</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362967</v>
+        <v>746.0241761362968</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198915</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.89614187084</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2548.674958929621</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O26" t="n">
-        <v>3051.647429808958</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3521.246801226996</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3979.725003735985</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6321,10 +6321,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960309</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1273.952146712635</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1807.484051384559</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611206</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
@@ -6616,28 +6616,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960309</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>612.7260927109203</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L32" t="n">
-        <v>1063.760305959329</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M32" t="n">
-        <v>1597.292210631253</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N32" t="n">
-        <v>2577.0444828579</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,7 +6947,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939507</v>
@@ -6956,31 +6956,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389144</v>
+        <v>839.5784050866016</v>
       </c>
       <c r="C37" t="n">
-        <v>473.2993530110075</v>
+        <v>769.3136567325382</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725152</v>
+        <v>619.1970173202025</v>
       </c>
       <c r="E37" t="n">
-        <v>329.97921818983</v>
+        <v>471.2839237378093</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657631</v>
+        <v>324.393976239899</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>156.6911396146179</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7126,19 +7126,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388407</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691541</v>
+        <v>922.5554353429978</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830734</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,13 +7172,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650707</v>
+        <v>552.405078696442</v>
       </c>
       <c r="C40" t="n">
-        <v>374.6279184371638</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D40" t="n">
-        <v>323.1827135986715</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891709</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X40" t="n">
-        <v>748.6622761911535</v>
+        <v>757.5032535225251</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214669</v>
+        <v>635.3821089528384</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7509,7 +7509,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>795.5993767202773</v>
+        <v>500.9308303909361</v>
       </c>
       <c r="C43" t="n">
-        <v>725.3346283662138</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D43" t="n">
-        <v>575.217988953878</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E43" t="n">
-        <v>427.3048953714849</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F43" t="n">
-        <v>280.4149478735745</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G43" t="n">
-        <v>211.3835458221369</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1320.761403333652</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W43" t="n">
-        <v>1130.015667870534</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X43" t="n">
-        <v>1000.69755154636</v>
+        <v>706.0290052170192</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.5764069766736</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046498</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307324</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,37 +7661,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,73 +7701,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
         <v>1109.759191501176</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>642.2355359389139</v>
+        <v>499.5850729987475</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848504</v>
+        <v>429.3203246446839</v>
       </c>
       <c r="D46" t="n">
-        <v>520.5255827463581</v>
+        <v>377.8751198061915</v>
       </c>
       <c r="E46" t="n">
-        <v>471.2839237378083</v>
+        <v>328.6334607976418</v>
       </c>
       <c r="F46" t="n">
-        <v>379.0863824474179</v>
+        <v>280.4149478735748</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221369</v>
+        <v>211.383545822137</v>
       </c>
       <c r="H46" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058688</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663014</v>
+        <v>886.8213698466985</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388404</v>
+        <v>757.5032535225246</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691537</v>
+        <v>635.3821089528378</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430626</v>
+        <v>157.2353108430633</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729</v>
+        <v>184.403943372901</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389595</v>
+        <v>191.4948909389607</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333057</v>
+        <v>181.0856325333071</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830231</v>
+        <v>179.3553748830244</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383981</v>
+        <v>182.8301554383993</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586577</v>
+        <v>190.8908035586588</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266118</v>
+        <v>192.0103836266126</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875971</v>
+        <v>112.6562001875975</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372528</v>
+        <v>113.6031223372535</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672267</v>
+        <v>105.9629718672276</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253585</v>
+        <v>104.1013981253596</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677575</v>
+        <v>92.3024655867768</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359728</v>
+        <v>106.8829608359738</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798318</v>
+        <v>105.3113487798326</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615454</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564654</v>
+        <v>116.1755252564659</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085223</v>
+        <v>119.1996074085229</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140774</v>
+        <v>108.4284123140779</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530921</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662701</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>105.0013903333778</v>
       </c>
       <c r="N23" t="n">
-        <v>339.8144253784337</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>306.6874953089259</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>18.79169145623396</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>221.2853655744092</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>8.970374914504418</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>306.6874953089267</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>324.1971148842748</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>283.006489909291</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.81220217974496</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
-        <v>50.66363632538034</v>
+        <v>119.5138160594426</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>39.77297420934127</v>
+        <v>24.39176400580898</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663269</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104937</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>27.63492362990212</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>106.4864985696529</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,10 +23738,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359923</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.07135577741158272</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>25.01703144686052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>37.21630084065404</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,16 +24023,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>79.19514304898691</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1314120.151120183</v>
+        <v>1314120.151120184</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1270539.214851442</v>
+        <v>1270539.214851443</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1270539.214851442</v>
+        <v>1270539.214851443</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1270539.214851442</v>
+        <v>1270539.214851443</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204819.0846792597</v>
+        <v>204819.0846792596</v>
       </c>
       <c r="C2" t="n">
         <v>204819.0846792596</v>
@@ -26320,28 +26320,28 @@
         <v>204824.6674514866</v>
       </c>
       <c r="E2" t="n">
-        <v>182385.0002262436</v>
+        <v>182385.0002262437</v>
       </c>
       <c r="F2" t="n">
-        <v>182385.0002262436</v>
+        <v>182385.0002262437</v>
       </c>
       <c r="G2" t="n">
-        <v>198632.7053116343</v>
+        <v>198632.7053116341</v>
       </c>
       <c r="H2" t="n">
-        <v>198632.7053116343</v>
+        <v>198632.7053116342</v>
       </c>
       <c r="I2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="J2" t="n">
         <v>205260.4424660705</v>
       </c>
       <c r="K2" t="n">
-        <v>205260.4424660705</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660706</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660708</v>
@@ -26350,10 +26350,10 @@
         <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="P2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.4424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552405</v>
+        <v>59764.55367552244</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163631</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179707</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.109294874</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475034</v>
+        <v>426120.683347504</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863751</v>
+        <v>39414.21797863755</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863752</v>
+        <v>39414.21797863755</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007971</v>
+        <v>76442.37834007975</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007971</v>
+        <v>76442.37834007977</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602847</v>
+        <v>89331.3356060285</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936343</v>
+        <v>86909.5572993634</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936338</v>
+        <v>86909.5572993634</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936335</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="N4" t="n">
+        <v>91573.95495316942</v>
+      </c>
+      <c r="O4" t="n">
+        <v>91573.95495316938</v>
+      </c>
+      <c r="P4" t="n">
         <v>91573.95495316945</v>
-      </c>
-      <c r="O4" t="n">
-        <v>91573.95495316942</v>
-      </c>
-      <c r="P4" t="n">
-        <v>91573.95495316944</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186639</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
@@ -26497,10 +26497,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275833.1355931332</v>
+        <v>-275837.5491710014</v>
       </c>
       <c r="C6" t="n">
-        <v>-275833.1355931333</v>
+        <v>-275837.5491710014</v>
       </c>
       <c r="D6" t="n">
-        <v>-316209.4750034073</v>
+        <v>-316213.832753552</v>
       </c>
       <c r="E6" t="n">
-        <v>-1022837.680280851</v>
+        <v>-1023066.434703251</v>
       </c>
       <c r="F6" t="n">
-        <v>66401.29188277965</v>
+        <v>66172.53746038151</v>
       </c>
       <c r="G6" t="n">
-        <v>4091.57455146563</v>
+        <v>4025.297179920986</v>
       </c>
       <c r="H6" t="n">
-        <v>41671.6838463397</v>
+        <v>41605.40647479521</v>
       </c>
       <c r="I6" t="n">
-        <v>7371.11072836665</v>
+        <v>7371.110728366737</v>
       </c>
       <c r="J6" t="n">
         <v>3563.510470103938</v>
       </c>
       <c r="K6" t="n">
-        <v>28972.94349190102</v>
+        <v>28972.94349190133</v>
       </c>
       <c r="L6" t="n">
-        <v>-8607.16580297274</v>
+        <v>-8607.165802972828</v>
       </c>
       <c r="M6" t="n">
         <v>-171000.2097860727</v>
       </c>
       <c r="N6" t="n">
-        <v>31167.89020665146</v>
+        <v>31167.89020665163</v>
       </c>
       <c r="O6" t="n">
-        <v>31167.89020665173</v>
+        <v>31167.89020665169</v>
       </c>
       <c r="P6" t="n">
-        <v>31167.89020665154</v>
+        <v>31167.89020665162</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379079</v>
+        <v>69.78465283790601</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951248</v>
+        <v>50.70958360951258</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379079</v>
+        <v>69.78465283790601</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758508</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959704</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104725</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780171</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036571</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672096</v>
+        <v>84.22861846672109</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987497</v>
+        <v>90.83829126987523</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519065</v>
+        <v>84.46220888519089</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990022</v>
+        <v>7.649035050990419</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317029</v>
+        <v>75.62456067317058</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712653</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.92014658712652</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F19" t="n">
-        <v>11.49558901075548</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075511</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075542</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V22" t="n">
-        <v>11.49558901075551</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.49558901075545</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571907</v>
+        <v>11.49558901075514</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571907</v>
+        <v>73.8952832057191</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859212</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859212</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859378</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.47778196371081</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810504</v>
+        <v>55.47778196371061</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.72521440565367</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>55.47778196371115</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>54.1454821454447</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371223</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.39291458738785</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>54.14548214544475</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413381</v>
+        <v>0.2805413179413305</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366729</v>
+        <v>2.873093772366651</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993345</v>
+        <v>10.81556915993315</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362367</v>
+        <v>23.81059368362302</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208051</v>
+        <v>35.68590767207954</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102775</v>
+        <v>44.27152403102654</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396701</v>
+        <v>49.26060069396568</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356785</v>
+        <v>50.05768871356649</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328866</v>
+        <v>47.26805598328738</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661188</v>
+        <v>40.34219219661078</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783769</v>
+        <v>30.29530624783687</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313259</v>
+        <v>17.62255356313212</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588248</v>
+        <v>6.392835282588075</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288208</v>
+        <v>1.228069619288175</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530704</v>
+        <v>0.02244330543530643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796509</v>
+        <v>0.1501028381796469</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840313</v>
+        <v>1.449677410840274</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694123</v>
+        <v>5.168014384693984</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906957</v>
+        <v>14.18142647906918</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710618</v>
+        <v>24.23831663710553</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264746</v>
+        <v>32.59140791264658</v>
       </c>
       <c r="M9" t="n">
-        <v>38.0326357966598</v>
+        <v>38.03263579665877</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655755</v>
+        <v>39.03924649655649</v>
       </c>
       <c r="O9" t="n">
-        <v>35.7132836084716</v>
+        <v>35.71328360847063</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449844</v>
+        <v>28.66305863449766</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447615</v>
+        <v>19.16049562447563</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768157</v>
+        <v>9.319542882767905</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608866</v>
+        <v>2.78809438460879</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890314</v>
+        <v>0.6050197731890151</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345462</v>
+        <v>0.009875186722345193</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486863</v>
+        <v>0.125841177248683</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811049</v>
+        <v>1.118842466811018</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078678</v>
+        <v>3.784387403078576</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482125</v>
+        <v>8.896971231481885</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489283</v>
+        <v>14.62045677489243</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477288</v>
+        <v>18.70915102477237</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908272</v>
+        <v>19.72617653908218</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115581</v>
+        <v>19.25713215115529</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875069</v>
+        <v>17.78707839875021</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287748</v>
+        <v>15.21991838287707</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852409</v>
+        <v>10.53748257852381</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381842</v>
+        <v>5.658276933381688</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233924</v>
+        <v>2.193068516233865</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625688</v>
+        <v>0.5376850300625543</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564718</v>
+        <v>0.006864064213564533</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33038,7 +33038,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019269</v>
+        <v>72.49856320019276</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573247</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019269</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
@@ -35823,7 +35823,7 @@
         <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36364,10 +36364,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>643.9225061636043</v>
       </c>
       <c r="N23" t="n">
-        <v>892.116260791345</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36610,13 +36610,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>705.4494815282975</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>78.40488999845869</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165831</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>676.8754799667412</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165831</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37069,16 +37069,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>346.1616614699048</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>858.989330721838</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37087,10 +37087,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629133</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037218</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
